--- a/data/trans_camb/P14B34-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P14B34-Estudios-trans_camb.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.429100759278987</v>
+        <v>2.443585767426444</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.723879771874721</v>
+        <v>1.746569770610273</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.260057086761679</v>
+        <v>2.283563690488234</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.906335972697167</v>
+        <v>4.891114742344448</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.846988478650747</v>
+        <v>3.968581267329693</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.662258934190605</v>
+        <v>4.544960517763784</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +690,7 @@
         <v>0.7376812245071076</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.5598084623398598</v>
+        <v>0.5598084623398599</v>
       </c>
     </row>
     <row r="11">
@@ -701,13 +701,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6541683555970313</v>
+        <v>0.693199170489483</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4073125355069132</v>
+        <v>0.429947923015934</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3303597054936433</v>
+        <v>0.3238513655574573</v>
       </c>
     </row>
     <row r="12">
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.601038548244504</v>
+        <v>1.631852762843098</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.230142391399428</v>
+        <v>1.231563972064114</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9006898260850635</v>
+        <v>0.8898630824717785</v>
       </c>
     </row>
     <row r="13">
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2368816619891801</v>
+        <v>0.1904199682129679</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.432026204488698</v>
+        <v>2.805923936559832</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.719432769109048</v>
+        <v>1.688085024200793</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.611301156511046</v>
+        <v>1.471265747380655</v>
       </c>
     </row>
     <row r="19">
@@ -901,13 +901,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.285522930615343</v>
+        <v>1.273673045783022</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7754889563747468</v>
+        <v>0.8061186907609781</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.730370922192379</v>
+        <v>0.7881336529321236</v>
       </c>
     </row>
     <row r="24">
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.190063727770171</v>
+        <v>2.226599744923536</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.529320174828404</v>
+        <v>1.529839779301349</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.324724251574133</v>
+        <v>1.340634618220457</v>
       </c>
     </row>
     <row r="25">
